--- a/data/GAMS_output/Kd_results.xlsx
+++ b/data/GAMS_output/Kd_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBRG\Dropbox (UCSD SBRG)\TRN_iM_modeling\GAMS\chris_testing\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2377B69-5849-4ADD-AF86-BB6E30E8D1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD72A93-D817-4C10-A6A3-272182BFA781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18570" yWindow="4020" windowWidth="15630" windowHeight="16440" xr2:uid="{5721FFCB-4A55-4A50-A3ED-FC92345CA068}"/>
+    <workbookView xWindow="2805" yWindow="4485" windowWidth="11025" windowHeight="16155" xr2:uid="{5721FFCB-4A55-4A50-A3ED-FC92345CA068}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>b1101</t>
   </si>
@@ -44,13 +44,7 @@
     <t>b1817</t>
   </si>
   <si>
-    <t>b2239</t>
-  </si>
-  <si>
-    <t>b0723</t>
-  </si>
-  <si>
-    <t>b2597</t>
+    <t>b2151</t>
   </si>
 </sst>
 </file>
@@ -419,12 +413,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -437,19 +427,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-6.6738030652659805</v>
+        <v>-6.98</v>
       </c>
       <c r="B2">
-        <v>-6.690604877077746</v>
+        <v>-6.893393701411795</v>
       </c>
       <c r="C2">
-        <v>-6.7005970874790934</v>
-      </c>
-      <c r="D2">
-        <v>-6.6821421640537508</v>
-      </c>
-      <c r="E2">
-        <v>-6.682564561972284</v>
+        <v>-6.5628897380232161</v>
       </c>
     </row>
   </sheetData>
